--- a/SensitivityAnalisys/CF_G_2023_1_MTDN.xlsx
+++ b/SensitivityAnalisys/CF_G_2023_1_MTDN.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072EEA5D-AE57-406F-A6E0-AB1EB7DAD3FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB458A7-3592-4372-874A-425536F75259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="85">
   <si>
     <t>ReportingNode</t>
   </si>
@@ -321,6 +321,9 @@
   </si>
   <si>
     <t>I</t>
+  </si>
+  <si>
+    <t>EV</t>
   </si>
 </sst>
 </file>
@@ -365,9 +368,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1130,8 +1135,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_Cashflow" displayName="Table_Cashflow" ref="A1:BN2" totalsRowShown="0">
-  <autoFilter ref="A1:BN2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_Cashflow" displayName="Table_Cashflow" ref="A1:BN3" totalsRowShown="0">
+  <autoFilter ref="A1:BN3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="66">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DataNode" dataDxfId="64"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="AmountType" dataDxfId="63"/>
@@ -1503,7 +1508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF902ED-C214-4F96-9503-445B7BE7E04C}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1560,10 +1565,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59E8FC3-4B20-424B-A44D-77DCF1F6F0A1}">
-  <dimension ref="A1:BV4"/>
+  <dimension ref="A1:BV5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1984,203 +1989,203 @@
       <c r="BV2" s="1"/>
     </row>
     <row r="3" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
       </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3">
-        <v>-72</v>
-      </c>
-      <c r="G3">
-        <v>-72.199744293942445</v>
-      </c>
-      <c r="H3">
-        <v>-72.397163028435216</v>
-      </c>
-      <c r="I3">
-        <v>-72.655159665080419</v>
-      </c>
-      <c r="J3">
-        <v>-72.980318235738878</v>
-      </c>
-      <c r="K3">
-        <v>-73.375800498492865</v>
-      </c>
-      <c r="L3">
-        <v>-73.843868224126496</v>
-      </c>
-      <c r="M3">
-        <v>-74.386530960045192</v>
-      </c>
-      <c r="N3">
-        <v>-75.00578777226184</v>
-      </c>
-      <c r="O3">
-        <v>-75.703739980113866</v>
-      </c>
-      <c r="P3">
-        <v>-76.482653444652044</v>
-      </c>
-      <c r="Q3">
-        <v>-77.441621335825573</v>
-      </c>
-      <c r="R3">
-        <v>-78.564199434225628</v>
-      </c>
-      <c r="S3">
-        <v>-79.857535992911707</v>
-      </c>
-      <c r="T3">
-        <v>-81.329687989603983</v>
-      </c>
-      <c r="U3">
-        <v>-82.989773999291032</v>
-      </c>
-      <c r="V3">
-        <v>-84.848105327185849</v>
-      </c>
-      <c r="W3">
-        <v>-86.916313579336204</v>
-      </c>
-      <c r="X3">
-        <v>-89.411598606715472</v>
-      </c>
-      <c r="Y3">
-        <v>-92.331967525519914</v>
-      </c>
-      <c r="Z3">
-        <v>-95.713519702551793</v>
-      </c>
-      <c r="AA3">
-        <v>-99.598720426685162</v>
-      </c>
-      <c r="AB3">
-        <v>-104.03732628531884</v>
-      </c>
-      <c r="AC3">
-        <v>-109.08745613863542</v>
-      </c>
-      <c r="AD3">
-        <v>-114.81684944711007</v>
-      </c>
-      <c r="AE3">
-        <v>-121.30435424285479</v>
-      </c>
-      <c r="AF3">
-        <v>-128.77752453643438</v>
-      </c>
-      <c r="AG3">
-        <v>-137.35214873980721</v>
-      </c>
-      <c r="AH3">
-        <v>-147.18180424229166</v>
-      </c>
-      <c r="AI3">
-        <v>-158.44828212092844</v>
-      </c>
-      <c r="AJ3">
-        <v>-171.36696317148429</v>
-      </c>
-      <c r="AK3">
-        <v>-186.19336109129378</v>
-      </c>
-      <c r="AL3">
-        <v>-203.2311014809377</v>
-      </c>
-      <c r="AM3">
-        <v>-222.84167179366378</v>
-      </c>
-      <c r="AN3">
-        <v>-243.74521212816177</v>
-      </c>
-      <c r="AO3">
-        <v>-265.85375433028912</v>
-      </c>
-      <c r="AP3">
-        <v>-288.87624160054247</v>
-      </c>
-      <c r="AQ3">
-        <v>-312.73462609913821</v>
-      </c>
-      <c r="AR3">
-        <v>-337.30985303567468</v>
-      </c>
-      <c r="AS3">
-        <v>-362.09007014416801</v>
-      </c>
-      <c r="AT3">
-        <v>-386.87445951904022</v>
-      </c>
-      <c r="AU3">
-        <v>-411.41395720140275</v>
-      </c>
-      <c r="AV3">
-        <v>-434.98367769881298</v>
-      </c>
-      <c r="AW3">
-        <v>-457.27898029280288</v>
-      </c>
-      <c r="AX3">
-        <v>-476.91646535483295</v>
-      </c>
-      <c r="AY3">
-        <v>-492.98838225589992</v>
-      </c>
-      <c r="AZ3">
-        <v>-503.91947621227342</v>
-      </c>
-      <c r="BA3">
-        <v>-508.68070011217003</v>
-      </c>
-      <c r="BB3">
-        <v>-508.64997613668572</v>
-      </c>
-      <c r="BC3">
-        <v>-506.23904090018073</v>
-      </c>
-      <c r="BD3">
-        <v>-496.22517265586487</v>
-      </c>
-      <c r="BE3">
-        <v>-466.1008478989587</v>
-      </c>
-      <c r="BF3">
-        <v>-424.30486202216593</v>
-      </c>
-      <c r="BG3">
-        <v>-373.48351315811772</v>
-      </c>
-      <c r="BH3">
-        <v>-315.65917780204921</v>
-      </c>
-      <c r="BI3">
-        <v>-254.13609288775365</v>
-      </c>
-      <c r="BJ3">
-        <v>-191.92066327859624</v>
-      </c>
-      <c r="BK3">
-        <v>-133.41503692163533</v>
-      </c>
-      <c r="BL3">
-        <v>-83.388344739997407</v>
-      </c>
-      <c r="BM3">
-        <v>-43.547125694122506</v>
-      </c>
-      <c r="BN3">
-        <v>-13.16552626228288</v>
+      <c r="D3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="3">
+        <v>-72.639999999999986</v>
+      </c>
+      <c r="G3" s="3">
+        <v>-72.841519798777497</v>
+      </c>
+      <c r="H3" s="3">
+        <v>-73.04069336646576</v>
+      </c>
+      <c r="I3" s="3">
+        <v>-73.300983306547792</v>
+      </c>
+      <c r="J3" s="3">
+        <v>-73.62903217561211</v>
+      </c>
+      <c r="K3" s="3">
+        <v>-74.028029836257232</v>
+      </c>
+      <c r="L3" s="3">
+        <v>-74.500258163896504</v>
+      </c>
+      <c r="M3" s="3">
+        <v>-75.047744568578935</v>
+      </c>
+      <c r="N3" s="3">
+        <v>-75.672505885793058</v>
+      </c>
+      <c r="O3" s="3">
+        <v>-76.376662113270442</v>
+      </c>
+      <c r="P3" s="3">
+        <v>-77.162499253048949</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>-78.129991303255139</v>
+      </c>
+      <c r="R3" s="3">
+        <v>-79.262547873640969</v>
+      </c>
+      <c r="S3" s="3">
+        <v>-80.567380757293137</v>
+      </c>
+      <c r="T3" s="3">
+        <v>-82.052618549511564</v>
+      </c>
+      <c r="U3" s="3">
+        <v>-83.727460879284735</v>
+      </c>
+      <c r="V3" s="3">
+        <v>-85.602310707871951</v>
+      </c>
+      <c r="W3" s="3">
+        <v>-87.688903033374743</v>
+      </c>
+      <c r="X3" s="3">
+        <v>-90.2063683721085</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>-93.152696125746758</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>-96.564306544352249</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>-100.48404238603348</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>-104.96210251896612</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>-110.05712241542329</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>-115.83744366441772</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>-122.38261516945794</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>-129.9222136434249</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>-138.57305672860548</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>-148.49008694666756</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>-159.85671129533668</v>
+      </c>
+      <c r="AJ3" s="3">
+        <v>-172.89022506634191</v>
+      </c>
+      <c r="AK3" s="3">
+        <v>-187.84841318988308</v>
+      </c>
+      <c r="AL3" s="3">
+        <v>-205.03760016076825</v>
+      </c>
+      <c r="AM3" s="3">
+        <v>-224.82248665405191</v>
+      </c>
+      <c r="AN3" s="3">
+        <v>-245.91183623596766</v>
+      </c>
+      <c r="AO3" s="3">
+        <v>-268.21689881322504</v>
+      </c>
+      <c r="AP3" s="3">
+        <v>-291.44403041476949</v>
+      </c>
+      <c r="AQ3" s="3">
+        <v>-315.51448944224171</v>
+      </c>
+      <c r="AR3" s="3">
+        <v>-340.30816284043624</v>
+      </c>
+      <c r="AS3" s="3">
+        <v>-365.3086485454495</v>
+      </c>
+      <c r="AT3" s="3">
+        <v>-390.31334360365395</v>
+      </c>
+      <c r="AU3" s="3">
+        <v>-415.07097015430412</v>
+      </c>
+      <c r="AV3" s="3">
+        <v>-438.85019927835793</v>
+      </c>
+      <c r="AW3" s="3">
+        <v>-461.34368233985003</v>
+      </c>
+      <c r="AX3" s="3">
+        <v>-481.15572282465371</v>
+      </c>
+      <c r="AY3" s="3">
+        <v>-497.37050120928569</v>
+      </c>
+      <c r="AZ3" s="3">
+        <v>-508.39876044527142</v>
+      </c>
+      <c r="BA3" s="3">
+        <v>-513.20230633538927</v>
+      </c>
+      <c r="BB3" s="3">
+        <v>-513.1713092579007</v>
+      </c>
+      <c r="BC3" s="3">
+        <v>-510.73894348596008</v>
+      </c>
+      <c r="BD3" s="3">
+        <v>-500.63606307947259</v>
+      </c>
+      <c r="BE3" s="3">
+        <v>-470.24396654694942</v>
+      </c>
+      <c r="BF3" s="3">
+        <v>-428.07646079569628</v>
+      </c>
+      <c r="BG3" s="3">
+        <v>-376.80336660841209</v>
+      </c>
+      <c r="BH3" s="3">
+        <v>-318.46503716028963</v>
+      </c>
+      <c r="BI3" s="3">
+        <v>-256.39508038008921</v>
+      </c>
+      <c r="BJ3" s="3">
+        <v>-193.62662472996152</v>
+      </c>
+      <c r="BK3" s="3">
+        <v>-134.60094836093876</v>
+      </c>
+      <c r="BL3" s="3">
+        <v>-84.129574471019609</v>
+      </c>
+      <c r="BM3" s="3">
+        <v>-43.934211255848034</v>
+      </c>
+      <c r="BN3" s="3">
+        <v>-13.282553162392061</v>
       </c>
       <c r="BO3" s="1"/>
       <c r="BP3" s="1"/>
@@ -2192,21 +2197,229 @@
       <c r="BV3" s="1"/>
     </row>
     <row r="4" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="F4" s="1"/>
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4">
+        <v>-72</v>
+      </c>
+      <c r="G4">
+        <v>-72.199744293942445</v>
+      </c>
+      <c r="H4">
+        <v>-72.397163028435216</v>
+      </c>
+      <c r="I4">
+        <v>-72.655159665080419</v>
+      </c>
+      <c r="J4">
+        <v>-72.980318235738878</v>
+      </c>
+      <c r="K4">
+        <v>-73.375800498492865</v>
+      </c>
+      <c r="L4">
+        <v>-73.843868224126496</v>
+      </c>
+      <c r="M4">
+        <v>-74.386530960045192</v>
+      </c>
+      <c r="N4">
+        <v>-75.00578777226184</v>
+      </c>
+      <c r="O4">
+        <v>-75.703739980113866</v>
+      </c>
+      <c r="P4">
+        <v>-76.482653444652044</v>
+      </c>
+      <c r="Q4">
+        <v>-77.441621335825573</v>
+      </c>
+      <c r="R4">
+        <v>-78.564199434225628</v>
+      </c>
+      <c r="S4">
+        <v>-79.857535992911707</v>
+      </c>
+      <c r="T4">
+        <v>-81.329687989603983</v>
+      </c>
+      <c r="U4">
+        <v>-82.989773999291032</v>
+      </c>
+      <c r="V4">
+        <v>-84.848105327185849</v>
+      </c>
+      <c r="W4">
+        <v>-86.916313579336204</v>
+      </c>
+      <c r="X4">
+        <v>-89.411598606715472</v>
+      </c>
+      <c r="Y4">
+        <v>-92.331967525519914</v>
+      </c>
+      <c r="Z4">
+        <v>-95.713519702551793</v>
+      </c>
+      <c r="AA4">
+        <v>-99.598720426685162</v>
+      </c>
+      <c r="AB4">
+        <v>-104.03732628531884</v>
+      </c>
+      <c r="AC4">
+        <v>-109.08745613863542</v>
+      </c>
+      <c r="AD4">
+        <v>-114.81684944711007</v>
+      </c>
+      <c r="AE4">
+        <v>-121.30435424285479</v>
+      </c>
+      <c r="AF4">
+        <v>-128.77752453643438</v>
+      </c>
+      <c r="AG4">
+        <v>-137.35214873980721</v>
+      </c>
+      <c r="AH4">
+        <v>-147.18180424229166</v>
+      </c>
+      <c r="AI4">
+        <v>-158.44828212092844</v>
+      </c>
+      <c r="AJ4">
+        <v>-171.36696317148429</v>
+      </c>
+      <c r="AK4">
+        <v>-186.19336109129378</v>
+      </c>
+      <c r="AL4">
+        <v>-203.2311014809377</v>
+      </c>
+      <c r="AM4">
+        <v>-222.84167179366378</v>
+      </c>
+      <c r="AN4">
+        <v>-243.74521212816177</v>
+      </c>
+      <c r="AO4">
+        <v>-265.85375433028912</v>
+      </c>
+      <c r="AP4">
+        <v>-288.87624160054247</v>
+      </c>
+      <c r="AQ4">
+        <v>-312.73462609913821</v>
+      </c>
+      <c r="AR4">
+        <v>-337.30985303567468</v>
+      </c>
+      <c r="AS4">
+        <v>-362.09007014416801</v>
+      </c>
+      <c r="AT4">
+        <v>-386.87445951904022</v>
+      </c>
+      <c r="AU4">
+        <v>-411.41395720140275</v>
+      </c>
+      <c r="AV4">
+        <v>-434.98367769881298</v>
+      </c>
+      <c r="AW4">
+        <v>-457.27898029280288</v>
+      </c>
+      <c r="AX4">
+        <v>-476.91646535483295</v>
+      </c>
+      <c r="AY4">
+        <v>-492.98838225589992</v>
+      </c>
+      <c r="AZ4">
+        <v>-503.91947621227342</v>
+      </c>
+      <c r="BA4">
+        <v>-508.68070011217003</v>
+      </c>
+      <c r="BB4">
+        <v>-508.64997613668572</v>
+      </c>
+      <c r="BC4">
+        <v>-506.23904090018073</v>
+      </c>
+      <c r="BD4">
+        <v>-496.22517265586487</v>
+      </c>
+      <c r="BE4">
+        <v>-466.1008478989587</v>
+      </c>
+      <c r="BF4">
+        <v>-424.30486202216593</v>
+      </c>
+      <c r="BG4">
+        <v>-373.48351315811772</v>
+      </c>
+      <c r="BH4">
+        <v>-315.65917780204921</v>
+      </c>
+      <c r="BI4">
+        <v>-254.13609288775365</v>
+      </c>
+      <c r="BJ4">
+        <v>-191.92066327859624</v>
+      </c>
+      <c r="BK4">
+        <v>-133.41503692163533</v>
+      </c>
+      <c r="BL4">
+        <v>-83.388344739997407</v>
+      </c>
+      <c r="BM4">
+        <v>-43.547125694122506</v>
+      </c>
+      <c r="BN4">
+        <v>-13.16552626228288</v>
+      </c>
+      <c r="BO4" s="1"/>
+      <c r="BP4" s="1"/>
+      <c r="BQ4" s="1"/>
+      <c r="BR4" s="1"/>
+      <c r="BS4" s="1"/>
+      <c r="BT4" s="1"/>
+      <c r="BU4" s="1"/>
+      <c r="BV4" s="1"/>
+    </row>
+    <row r="5" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="F5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" sqref="A2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="A2:A3" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>GroupOfContract_SystemName</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="B2:C2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="B2:C3" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>AmountType_SystemName</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D2" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D3" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>VariableType_SystemName</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2" xr:uid="{00000000-0002-0000-0100-000004000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E3" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>Novelty_SystemName</formula1>
     </dataValidation>
   </dataValidations>

--- a/SensitivityAnalisys/CF_G_2023_1_MTDN.xlsx
+++ b/SensitivityAnalisys/CF_G_2023_1_MTDN.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB458A7-3592-4372-874A-425536F75259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD9247E-0E50-43CA-A29C-C9FECB508EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="58575" yWindow="4230" windowWidth="25305" windowHeight="10740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -368,11 +368,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1568,7 +1566,7 @@
   <dimension ref="A1:BV5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD9"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1989,202 +1987,202 @@
       <c r="BV2" s="1"/>
     </row>
     <row r="3" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>36</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="1">
         <v>-72.639999999999986</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="1">
         <v>-72.841519798777497</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="1">
         <v>-73.04069336646576</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="1">
         <v>-73.300983306547792</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="1">
         <v>-73.62903217561211</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="1">
         <v>-74.028029836257232</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="1">
         <v>-74.500258163896504</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="1">
         <v>-75.047744568578935</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="1">
         <v>-75.672505885793058</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="1">
         <v>-76.376662113270442</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="1">
         <v>-77.162499253048949</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="1">
         <v>-78.129991303255139</v>
       </c>
-      <c r="R3" s="3">
+      <c r="R3" s="1">
         <v>-79.262547873640969</v>
       </c>
-      <c r="S3" s="3">
+      <c r="S3" s="1">
         <v>-80.567380757293137</v>
       </c>
-      <c r="T3" s="3">
+      <c r="T3" s="1">
         <v>-82.052618549511564</v>
       </c>
-      <c r="U3" s="3">
+      <c r="U3" s="1">
         <v>-83.727460879284735</v>
       </c>
-      <c r="V3" s="3">
+      <c r="V3" s="1">
         <v>-85.602310707871951</v>
       </c>
-      <c r="W3" s="3">
+      <c r="W3" s="1">
         <v>-87.688903033374743</v>
       </c>
-      <c r="X3" s="3">
+      <c r="X3" s="1">
         <v>-90.2063683721085</v>
       </c>
-      <c r="Y3" s="3">
+      <c r="Y3" s="1">
         <v>-93.152696125746758</v>
       </c>
-      <c r="Z3" s="3">
+      <c r="Z3" s="1">
         <v>-96.564306544352249</v>
       </c>
-      <c r="AA3" s="3">
+      <c r="AA3" s="1">
         <v>-100.48404238603348</v>
       </c>
-      <c r="AB3" s="3">
+      <c r="AB3" s="1">
         <v>-104.96210251896612</v>
       </c>
-      <c r="AC3" s="3">
+      <c r="AC3" s="1">
         <v>-110.05712241542329</v>
       </c>
-      <c r="AD3" s="3">
+      <c r="AD3" s="1">
         <v>-115.83744366441772</v>
       </c>
-      <c r="AE3" s="3">
+      <c r="AE3" s="1">
         <v>-122.38261516945794</v>
       </c>
-      <c r="AF3" s="3">
+      <c r="AF3" s="1">
         <v>-129.9222136434249</v>
       </c>
-      <c r="AG3" s="3">
+      <c r="AG3" s="1">
         <v>-138.57305672860548</v>
       </c>
-      <c r="AH3" s="3">
+      <c r="AH3" s="1">
         <v>-148.49008694666756</v>
       </c>
-      <c r="AI3" s="3">
+      <c r="AI3" s="1">
         <v>-159.85671129533668</v>
       </c>
-      <c r="AJ3" s="3">
+      <c r="AJ3" s="1">
         <v>-172.89022506634191</v>
       </c>
-      <c r="AK3" s="3">
+      <c r="AK3" s="1">
         <v>-187.84841318988308</v>
       </c>
-      <c r="AL3" s="3">
+      <c r="AL3" s="1">
         <v>-205.03760016076825</v>
       </c>
-      <c r="AM3" s="3">
+      <c r="AM3" s="1">
         <v>-224.82248665405191</v>
       </c>
-      <c r="AN3" s="3">
+      <c r="AN3" s="1">
         <v>-245.91183623596766</v>
       </c>
-      <c r="AO3" s="3">
+      <c r="AO3" s="1">
         <v>-268.21689881322504</v>
       </c>
-      <c r="AP3" s="3">
+      <c r="AP3" s="1">
         <v>-291.44403041476949</v>
       </c>
-      <c r="AQ3" s="3">
+      <c r="AQ3" s="1">
         <v>-315.51448944224171</v>
       </c>
-      <c r="AR3" s="3">
+      <c r="AR3" s="1">
         <v>-340.30816284043624</v>
       </c>
-      <c r="AS3" s="3">
+      <c r="AS3" s="1">
         <v>-365.3086485454495</v>
       </c>
-      <c r="AT3" s="3">
+      <c r="AT3" s="1">
         <v>-390.31334360365395</v>
       </c>
-      <c r="AU3" s="3">
+      <c r="AU3" s="1">
         <v>-415.07097015430412</v>
       </c>
-      <c r="AV3" s="3">
+      <c r="AV3" s="1">
         <v>-438.85019927835793</v>
       </c>
-      <c r="AW3" s="3">
+      <c r="AW3" s="1">
         <v>-461.34368233985003</v>
       </c>
-      <c r="AX3" s="3">
+      <c r="AX3" s="1">
         <v>-481.15572282465371</v>
       </c>
-      <c r="AY3" s="3">
+      <c r="AY3" s="1">
         <v>-497.37050120928569</v>
       </c>
-      <c r="AZ3" s="3">
+      <c r="AZ3" s="1">
         <v>-508.39876044527142</v>
       </c>
-      <c r="BA3" s="3">
+      <c r="BA3" s="1">
         <v>-513.20230633538927</v>
       </c>
-      <c r="BB3" s="3">
+      <c r="BB3" s="1">
         <v>-513.1713092579007</v>
       </c>
-      <c r="BC3" s="3">
+      <c r="BC3" s="1">
         <v>-510.73894348596008</v>
       </c>
-      <c r="BD3" s="3">
+      <c r="BD3" s="1">
         <v>-500.63606307947259</v>
       </c>
-      <c r="BE3" s="3">
+      <c r="BE3" s="1">
         <v>-470.24396654694942</v>
       </c>
-      <c r="BF3" s="3">
+      <c r="BF3" s="1">
         <v>-428.07646079569628</v>
       </c>
-      <c r="BG3" s="3">
+      <c r="BG3" s="1">
         <v>-376.80336660841209</v>
       </c>
-      <c r="BH3" s="3">
+      <c r="BH3" s="1">
         <v>-318.46503716028963</v>
       </c>
-      <c r="BI3" s="3">
+      <c r="BI3" s="1">
         <v>-256.39508038008921</v>
       </c>
-      <c r="BJ3" s="3">
+      <c r="BJ3" s="1">
         <v>-193.62662472996152</v>
       </c>
-      <c r="BK3" s="3">
+      <c r="BK3" s="1">
         <v>-134.60094836093876</v>
       </c>
-      <c r="BL3" s="3">
+      <c r="BL3" s="1">
         <v>-84.129574471019609</v>
       </c>
-      <c r="BM3" s="3">
+      <c r="BM3" s="1">
         <v>-43.934211255848034</v>
       </c>
-      <c r="BN3" s="3">
+      <c r="BN3" s="1">
         <v>-13.282553162392061</v>
       </c>
       <c r="BO3" s="1"/>
@@ -2213,187 +2211,187 @@
         <v>81</v>
       </c>
       <c r="F4">
-        <v>-72</v>
+        <v>-72.639999999999986</v>
       </c>
       <c r="G4">
-        <v>-72.199744293942445</v>
+        <v>-72.841519798777497</v>
       </c>
       <c r="H4">
-        <v>-72.397163028435216</v>
+        <v>-73.04069336646576</v>
       </c>
       <c r="I4">
-        <v>-72.655159665080419</v>
+        <v>-73.300983306547792</v>
       </c>
       <c r="J4">
-        <v>-72.980318235738878</v>
+        <v>-73.62903217561211</v>
       </c>
       <c r="K4">
-        <v>-73.375800498492865</v>
+        <v>-74.028029836257232</v>
       </c>
       <c r="L4">
-        <v>-73.843868224126496</v>
+        <v>-74.500258163896504</v>
       </c>
       <c r="M4">
-        <v>-74.386530960045192</v>
+        <v>-75.047744568578935</v>
       </c>
       <c r="N4">
-        <v>-75.00578777226184</v>
+        <v>-75.672505885793058</v>
       </c>
       <c r="O4">
-        <v>-75.703739980113866</v>
+        <v>-76.376662113270442</v>
       </c>
       <c r="P4">
-        <v>-76.482653444652044</v>
+        <v>-77.162499253048949</v>
       </c>
       <c r="Q4">
-        <v>-77.441621335825573</v>
+        <v>-78.129991303255139</v>
       </c>
       <c r="R4">
-        <v>-78.564199434225628</v>
+        <v>-79.262547873640969</v>
       </c>
       <c r="S4">
-        <v>-79.857535992911707</v>
+        <v>-80.567380757293137</v>
       </c>
       <c r="T4">
-        <v>-81.329687989603983</v>
+        <v>-82.052618549511564</v>
       </c>
       <c r="U4">
-        <v>-82.989773999291032</v>
+        <v>-83.727460879284735</v>
       </c>
       <c r="V4">
-        <v>-84.848105327185849</v>
+        <v>-85.602310707871951</v>
       </c>
       <c r="W4">
-        <v>-86.916313579336204</v>
+        <v>-87.688903033374743</v>
       </c>
       <c r="X4">
-        <v>-89.411598606715472</v>
+        <v>-90.2063683721085</v>
       </c>
       <c r="Y4">
-        <v>-92.331967525519914</v>
+        <v>-93.152696125746758</v>
       </c>
       <c r="Z4">
-        <v>-95.713519702551793</v>
+        <v>-96.564306544352249</v>
       </c>
       <c r="AA4">
-        <v>-99.598720426685162</v>
+        <v>-100.48404238603348</v>
       </c>
       <c r="AB4">
-        <v>-104.03732628531884</v>
+        <v>-104.96210251896612</v>
       </c>
       <c r="AC4">
-        <v>-109.08745613863542</v>
+        <v>-110.05712241542329</v>
       </c>
       <c r="AD4">
-        <v>-114.81684944711007</v>
+        <v>-115.83744366441772</v>
       </c>
       <c r="AE4">
-        <v>-121.30435424285479</v>
+        <v>-122.38261516945794</v>
       </c>
       <c r="AF4">
-        <v>-128.77752453643438</v>
+        <v>-129.9222136434249</v>
       </c>
       <c r="AG4">
-        <v>-137.35214873980721</v>
+        <v>-138.57305672860548</v>
       </c>
       <c r="AH4">
-        <v>-147.18180424229166</v>
+        <v>-148.49008694666756</v>
       </c>
       <c r="AI4">
-        <v>-158.44828212092844</v>
+        <v>-159.85671129533668</v>
       </c>
       <c r="AJ4">
-        <v>-171.36696317148429</v>
+        <v>-172.89022506634191</v>
       </c>
       <c r="AK4">
-        <v>-186.19336109129378</v>
+        <v>-187.84841318988308</v>
       </c>
       <c r="AL4">
-        <v>-203.2311014809377</v>
+        <v>-205.03760016076825</v>
       </c>
       <c r="AM4">
-        <v>-222.84167179366378</v>
+        <v>-224.82248665405191</v>
       </c>
       <c r="AN4">
-        <v>-243.74521212816177</v>
+        <v>-245.91183623596766</v>
       </c>
       <c r="AO4">
-        <v>-265.85375433028912</v>
+        <v>-268.21689881322504</v>
       </c>
       <c r="AP4">
-        <v>-288.87624160054247</v>
+        <v>-291.44403041476949</v>
       </c>
       <c r="AQ4">
-        <v>-312.73462609913821</v>
+        <v>-315.51448944224171</v>
       </c>
       <c r="AR4">
-        <v>-337.30985303567468</v>
+        <v>-340.30816284043624</v>
       </c>
       <c r="AS4">
-        <v>-362.09007014416801</v>
+        <v>-365.3086485454495</v>
       </c>
       <c r="AT4">
-        <v>-386.87445951904022</v>
+        <v>-390.31334360365395</v>
       </c>
       <c r="AU4">
-        <v>-411.41395720140275</v>
+        <v>-415.07097015430412</v>
       </c>
       <c r="AV4">
-        <v>-434.98367769881298</v>
+        <v>-438.85019927835793</v>
       </c>
       <c r="AW4">
-        <v>-457.27898029280288</v>
+        <v>-461.34368233985003</v>
       </c>
       <c r="AX4">
-        <v>-476.91646535483295</v>
+        <v>-481.15572282465371</v>
       </c>
       <c r="AY4">
-        <v>-492.98838225589992</v>
+        <v>-497.37050120928569</v>
       </c>
       <c r="AZ4">
-        <v>-503.91947621227342</v>
+        <v>-508.39876044527142</v>
       </c>
       <c r="BA4">
-        <v>-508.68070011217003</v>
+        <v>-513.20230633538927</v>
       </c>
       <c r="BB4">
-        <v>-508.64997613668572</v>
+        <v>-513.1713092579007</v>
       </c>
       <c r="BC4">
-        <v>-506.23904090018073</v>
+        <v>-510.73894348596008</v>
       </c>
       <c r="BD4">
-        <v>-496.22517265586487</v>
+        <v>-500.63606307947259</v>
       </c>
       <c r="BE4">
-        <v>-466.1008478989587</v>
+        <v>-470.24396654694942</v>
       </c>
       <c r="BF4">
-        <v>-424.30486202216593</v>
+        <v>-428.07646079569628</v>
       </c>
       <c r="BG4">
-        <v>-373.48351315811772</v>
+        <v>-376.80336660841209</v>
       </c>
       <c r="BH4">
-        <v>-315.65917780204921</v>
+        <v>-318.46503716028963</v>
       </c>
       <c r="BI4">
-        <v>-254.13609288775365</v>
+        <v>-256.39508038008921</v>
       </c>
       <c r="BJ4">
-        <v>-191.92066327859624</v>
+        <v>-193.62662472996152</v>
       </c>
       <c r="BK4">
-        <v>-133.41503692163533</v>
+        <v>-134.60094836093876</v>
       </c>
       <c r="BL4">
-        <v>-83.388344739997407</v>
+        <v>-84.129574471019609</v>
       </c>
       <c r="BM4">
-        <v>-43.547125694122506</v>
+        <v>-43.934211255848034</v>
       </c>
       <c r="BN4">
-        <v>-13.16552626228288</v>
+        <v>-13.282553162392061</v>
       </c>
       <c r="BO4" s="1"/>
       <c r="BP4" s="1"/>
@@ -2409,7 +2407,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="4">
+  <dataValidations disablePrompts="1" count="4">
     <dataValidation type="list" allowBlank="1" sqref="A2:A3" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>GroupOfContract_SystemName</formula1>
     </dataValidation>
